--- a/data/PCA Mastersheet.xlsx
+++ b/data/PCA Mastersheet.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianyishen/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliceye/Desktop/CryptoMacroecon-Prediction-CSUREMM/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A26D3D1D-7B4F-F54F-8982-4C7974AA65B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45D69DA9-17AF-964B-B0A6-308A5F490996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8500" yWindow="760" windowWidth="20900" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Tether</t>
   </si>
@@ -42,6 +55,12 @@
   <si>
     <t>Month</t>
   </si>
+  <si>
+    <t>VIX</t>
+  </si>
+  <si>
+    <t>MOVE</t>
+  </si>
 </sst>
 </file>
 
@@ -50,7 +69,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +81,19 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -100,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -108,6 +140,8 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,15 +444,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -440,8 +474,14 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42979</v>
       </c>
@@ -454,8 +494,14 @@
       <c r="D2">
         <v>-3.8283</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="4">
+        <v>10.59</v>
+      </c>
+      <c r="I2" s="4">
+        <v>52.88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43009</v>
       </c>
@@ -468,8 +514,14 @@
       <c r="D3">
         <v>-3.73861</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="4">
+        <v>9.51</v>
+      </c>
+      <c r="I3" s="4">
+        <v>51.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43040</v>
       </c>
@@ -482,8 +534,14 @@
       <c r="D4">
         <v>-4.0195100000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="4">
+        <v>10.18</v>
+      </c>
+      <c r="I4" s="4">
+        <v>46.83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43070</v>
       </c>
@@ -496,8 +554,14 @@
       <c r="D5">
         <v>-2.55687</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="4">
+        <v>11.28</v>
+      </c>
+      <c r="I5" s="4">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43101</v>
       </c>
@@ -510,8 +574,14 @@
       <c r="D6">
         <v>-2.7519300000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="4">
+        <v>11.04</v>
+      </c>
+      <c r="I6" s="4">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43132</v>
       </c>
@@ -530,8 +600,14 @@
       <c r="G7">
         <v>0.69513919930678969</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="4">
+        <v>13.54</v>
+      </c>
+      <c r="I7" s="4">
+        <v>62.97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43160</v>
       </c>
@@ -550,8 +626,14 @@
       <c r="G8">
         <v>0.63927494473862989</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="4">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="I8" s="4">
+        <v>58.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43191</v>
       </c>
@@ -570,8 +652,14 @@
       <c r="G9">
         <v>0.50098847876597907</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="4">
+        <v>19.97</v>
+      </c>
+      <c r="I9" s="4">
+        <v>50.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43221</v>
       </c>
@@ -590,8 +678,14 @@
       <c r="G10">
         <v>0.66696769061145011</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="4">
+        <v>15.93</v>
+      </c>
+      <c r="I10" s="4">
+        <v>60.54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43252</v>
       </c>
@@ -610,8 +704,14 @@
       <c r="G11">
         <v>0.75985697200250979</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="4">
+        <v>15.43</v>
+      </c>
+      <c r="I11" s="4">
+        <v>51.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43282</v>
       </c>
@@ -630,8 +730,14 @@
       <c r="G12">
         <v>0.7351609440187733</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="4">
+        <v>16.09</v>
+      </c>
+      <c r="I12" s="4">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43313</v>
       </c>
@@ -650,8 +756,14 @@
       <c r="G13">
         <v>1.222581111621023</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="4">
+        <v>12.83</v>
+      </c>
+      <c r="I13" s="4">
+        <v>50.71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43344</v>
       </c>
@@ -670,8 +782,14 @@
       <c r="G14">
         <v>1.21168818638352</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="4">
+        <v>12.86</v>
+      </c>
+      <c r="I14" s="4">
+        <v>46.16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43374</v>
       </c>
@@ -690,8 +808,14 @@
       <c r="G15">
         <v>1.0412906797666159</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="4">
+        <v>12.12</v>
+      </c>
+      <c r="I15" s="4">
+        <v>60.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43405</v>
       </c>
@@ -710,8 +834,14 @@
       <c r="G16">
         <v>1.1622393564132669</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="4">
+        <v>21.23</v>
+      </c>
+      <c r="I16" s="4">
+        <v>52.43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43435</v>
       </c>
@@ -730,8 +860,14 @@
       <c r="G17">
         <v>0.36142586409146982</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="4">
+        <v>18.07</v>
+      </c>
+      <c r="I17" s="4">
+        <v>66.58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43466</v>
       </c>
@@ -753,8 +889,14 @@
       <c r="G18">
         <v>0.27953866868116672</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="4">
+        <v>25.42</v>
+      </c>
+      <c r="I18" s="4">
+        <v>49.81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43497</v>
       </c>
@@ -776,8 +918,14 @@
       <c r="G19">
         <v>0.14064436052754969</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="4">
+        <v>16.57</v>
+      </c>
+      <c r="I19" s="4">
+        <v>47.22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43525</v>
       </c>
@@ -799,8 +947,14 @@
       <c r="G20">
         <v>0.32423672889485822</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="4">
+        <v>14.78</v>
+      </c>
+      <c r="I20" s="4">
+        <v>58.55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43556</v>
       </c>
@@ -822,8 +976,14 @@
       <c r="G21">
         <v>0.46782093003803282</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="4">
+        <v>13.71</v>
+      </c>
+      <c r="I21" s="4">
+        <v>49.47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43586</v>
       </c>
@@ -845,8 +1005,14 @@
       <c r="G22">
         <v>0.95880376422001556</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="4">
+        <v>13.12</v>
+      </c>
+      <c r="I22" s="4">
+        <v>72.680000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43617</v>
       </c>
@@ -868,8 +1034,14 @@
       <c r="G23">
         <v>0.44725194785326072</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="4">
+        <v>18.71</v>
+      </c>
+      <c r="I23" s="4">
+        <v>70.430000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43647</v>
       </c>
@@ -891,8 +1063,14 @@
       <c r="G24">
         <v>6.2361471592595849E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="4">
+        <v>15.08</v>
+      </c>
+      <c r="I24" s="4">
+        <v>55.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43678</v>
       </c>
@@ -914,8 +1092,14 @@
       <c r="G25">
         <v>0.70579391357463617</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="4">
+        <v>16.12</v>
+      </c>
+      <c r="I25" s="4">
+        <v>86.89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43709</v>
       </c>
@@ -937,8 +1121,14 @@
       <c r="G26">
         <v>0.51046067853253052</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="4">
+        <v>18.98</v>
+      </c>
+      <c r="I26" s="4">
+        <v>77.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43739</v>
       </c>
@@ -960,8 +1150,14 @@
       <c r="G27">
         <v>0.81236119936591367</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" s="4">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="I27" s="4">
+        <v>65.88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43770</v>
       </c>
@@ -983,8 +1179,14 @@
       <c r="G28">
         <v>0.62815212540924792</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" s="4">
+        <v>13.22</v>
+      </c>
+      <c r="I28" s="4">
+        <v>56.57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>43800</v>
       </c>
@@ -1006,8 +1208,14 @@
       <c r="G29">
         <v>1.5921292008214769</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="4">
+        <v>12.62</v>
+      </c>
+      <c r="I29" s="4">
+        <v>58.28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43831</v>
       </c>
@@ -1029,8 +1237,14 @@
       <c r="G30">
         <v>0.66190083656537702</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" s="4">
+        <v>13.78</v>
+      </c>
+      <c r="I30" s="4">
+        <v>72.98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>43862</v>
       </c>
@@ -1052,8 +1266,14 @@
       <c r="G31">
         <v>3.387118366876344</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" s="4">
+        <v>18.84</v>
+      </c>
+      <c r="I31" s="4">
+        <v>109.67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>43891</v>
       </c>
@@ -1075,8 +1295,14 @@
       <c r="G32">
         <v>0.78030699591151698</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" s="4">
+        <v>40.11</v>
+      </c>
+      <c r="I32" s="4">
+        <v>83.87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43922</v>
       </c>
@@ -1098,8 +1324,14 @@
       <c r="G33">
         <v>-9.4575226559991663E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" s="4">
+        <v>53.54</v>
+      </c>
+      <c r="I33" s="4">
+        <v>53.59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>43952</v>
       </c>
@@ -1121,8 +1353,14 @@
       <c r="G34">
         <v>0.48015483072056359</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" s="4">
+        <v>34.15</v>
+      </c>
+      <c r="I34" s="4">
+        <v>51.55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43983</v>
       </c>
@@ -1144,8 +1382,14 @@
       <c r="G35">
         <v>0.36336360296791281</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" s="4">
+        <v>27.51</v>
+      </c>
+      <c r="I35" s="4">
+        <v>54.13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>44013</v>
       </c>
@@ -1167,8 +1411,14 @@
       <c r="G36">
         <v>0.63774288661647804</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" s="4">
+        <v>30.43</v>
+      </c>
+      <c r="I36" s="4">
+        <v>41.98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>44044</v>
       </c>
@@ -1190,8 +1440,14 @@
       <c r="G37">
         <v>1.7287633053973579</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" s="4">
+        <v>24.46</v>
+      </c>
+      <c r="I37" s="4">
+        <v>47.02</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>44075</v>
       </c>
@@ -1213,8 +1469,14 @@
       <c r="G38">
         <v>0.81737013204221531</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38" s="4">
+        <v>26.41</v>
+      </c>
+      <c r="I38" s="4">
+        <v>39.21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>44105</v>
       </c>
@@ -1236,8 +1498,14 @@
       <c r="G39">
         <v>0.40465515504101801</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" s="4">
+        <v>26.37</v>
+      </c>
+      <c r="I39" s="4">
+        <v>61.91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>44136</v>
       </c>
@@ -1259,8 +1527,14 @@
       <c r="G40">
         <v>0.2006908060245565</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40" s="4">
+        <v>38.020000000000003</v>
+      </c>
+      <c r="I40" s="4">
+        <v>40.840000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>44166</v>
       </c>
@@ -1282,8 +1556,14 @@
       <c r="G41">
         <v>0.6584713510560225</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41" s="4">
+        <v>20.57</v>
+      </c>
+      <c r="I41" s="4">
+        <v>48.98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>44197</v>
       </c>
@@ -1305,8 +1585,14 @@
       <c r="G42">
         <v>0.73775990613938214</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" s="4">
+        <v>22.75</v>
+      </c>
+      <c r="I42" s="4">
+        <v>47.41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>44228</v>
       </c>
@@ -1328,8 +1614,14 @@
       <c r="G43">
         <v>1.597578269986387</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43" s="4">
+        <v>33.090000000000003</v>
+      </c>
+      <c r="I43" s="4">
+        <v>75.66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>44256</v>
       </c>
@@ -1351,8 +1643,14 @@
       <c r="G44">
         <v>1.042133969392381</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44" s="4">
+        <v>27.95</v>
+      </c>
+      <c r="I44" s="4">
+        <v>71.27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44287</v>
       </c>
@@ -1374,8 +1672,14 @@
       <c r="G45">
         <v>0.80294359179841102</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45" s="4">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="I45" s="4">
+        <v>58.13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44317</v>
       </c>
@@ -1397,8 +1701,14 @@
       <c r="G46">
         <v>1.7080709315477951</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46" s="4">
+        <v>18.61</v>
+      </c>
+      <c r="I46" s="4">
+        <v>52.04</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>44348</v>
       </c>
@@ -1420,8 +1730,14 @@
       <c r="G47">
         <v>0.58548690962253747</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47" s="4">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="I47" s="4">
+        <v>57.27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>44378</v>
       </c>
@@ -1443,8 +1759,14 @@
       <c r="G48">
         <v>1.1442300473160589</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48" s="4">
+        <v>15.83</v>
+      </c>
+      <c r="I48" s="4">
+        <v>61.19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>44409</v>
       </c>
@@ -1466,8 +1788,14 @@
       <c r="G49">
         <v>0.95269023867037916</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49" s="4">
+        <v>18.239999999999998</v>
+      </c>
+      <c r="I49" s="4">
+        <v>59.54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>44440</v>
       </c>
@@ -1489,8 +1817,14 @@
       <c r="G50">
         <v>1.07829177152692</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50" s="4">
+        <v>16.48</v>
+      </c>
+      <c r="I50" s="4">
+        <v>61.07</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>44470</v>
       </c>
@@ -1512,8 +1846,14 @@
       <c r="G51">
         <v>0.66834971397419451</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51" s="4">
+        <v>23.14</v>
+      </c>
+      <c r="I51" s="4">
+        <v>75.45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>44501</v>
       </c>
@@ -1535,8 +1875,14 @@
       <c r="G52">
         <v>1.2344199148499679</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52" s="4">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="I52" s="4">
+        <v>84.04</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>44531</v>
       </c>
@@ -1558,8 +1904,14 @@
       <c r="G53">
         <v>0.65541051549392781</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53" s="4">
+        <v>27.19</v>
+      </c>
+      <c r="I53" s="4">
+        <v>77.099999999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>44562</v>
       </c>
@@ -1581,8 +1933,14 @@
       <c r="G54">
         <v>0.93245549203178124</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54" s="4">
+        <v>17.22</v>
+      </c>
+      <c r="I54" s="4">
+        <v>85.14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>44593</v>
       </c>
@@ -1604,8 +1962,14 @@
       <c r="G55">
         <v>0.713903236891966</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55" s="4">
+        <v>24.83</v>
+      </c>
+      <c r="I55" s="4">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>44621</v>
       </c>
@@ -1627,8 +1991,14 @@
       <c r="G56">
         <v>0.57085530133413664</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56" s="4">
+        <v>30.15</v>
+      </c>
+      <c r="I56" s="4">
+        <v>106.88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>44652</v>
       </c>
@@ -1650,8 +2020,14 @@
       <c r="G57">
         <v>0.78556320849638861</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57" s="4">
+        <v>20.56</v>
+      </c>
+      <c r="I57" s="4">
+        <v>128.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>44682</v>
       </c>
@@ -1673,8 +2049,14 @@
       <c r="G58">
         <v>1.4149425217580329</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58" s="4">
+        <v>33.4</v>
+      </c>
+      <c r="I58" s="4">
+        <v>107.12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>44713</v>
       </c>
@@ -1696,8 +2078,14 @@
       <c r="G59">
         <v>0.65336229777322175</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59" s="4">
+        <v>26.19</v>
+      </c>
+      <c r="I59" s="4">
+        <v>135.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>44743</v>
       </c>
@@ -1719,8 +2107,14 @@
       <c r="G60">
         <v>0.7134602763039799</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60" s="4">
+        <v>28.71</v>
+      </c>
+      <c r="I60" s="4">
+        <v>116.36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>44774</v>
       </c>
@@ -1742,8 +2136,14 @@
       <c r="G61">
         <v>0.6072620725962512</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61" s="4">
+        <v>21.33</v>
+      </c>
+      <c r="I61" s="4">
+        <v>124.84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>44805</v>
       </c>
@@ -1765,8 +2165,14 @@
       <c r="G62">
         <v>1.0416240127568961</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62" s="4">
+        <v>25.87</v>
+      </c>
+      <c r="I62" s="4">
+        <v>141.88999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>44835</v>
       </c>
@@ -1788,8 +2194,14 @@
       <c r="G63">
         <v>0.66671792401072949</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63" s="4">
+        <v>31.62</v>
+      </c>
+      <c r="I63" s="4">
+        <v>147.91999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>44866</v>
       </c>
@@ -1811,8 +2223,14 @@
       <c r="G64">
         <v>1.992203679153091</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64" s="4">
+        <v>25.88</v>
+      </c>
+      <c r="I64" s="4">
+        <v>127.27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>44896</v>
       </c>
@@ -1834,8 +2252,14 @@
       <c r="G65">
         <v>0.84549305695049026</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65" s="4">
+        <v>20.58</v>
+      </c>
+      <c r="I65" s="4">
+        <v>121.61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>44927</v>
       </c>
@@ -1857,8 +2281,14 @@
       <c r="G66">
         <v>1.497785720407887</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66" s="4">
+        <v>21.67</v>
+      </c>
+      <c r="I66" s="4">
+        <v>99.54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>44958</v>
       </c>
@@ -1880,8 +2310,14 @@
       <c r="G67">
         <v>0.91379915087974717</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67" s="4">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="I67" s="4">
+        <v>123.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>44986</v>
       </c>
@@ -1903,8 +2339,14 @@
       <c r="G68">
         <v>1.097500042427721</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68" s="4">
+        <v>20.7</v>
+      </c>
+      <c r="I68" s="4">
+        <v>135.93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>45017</v>
       </c>
@@ -1926,8 +2368,14 @@
       <c r="G69">
         <v>0.68547598864630199</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H69" s="4">
+        <v>18.7</v>
+      </c>
+      <c r="I69" s="4">
+        <v>122.46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>45047</v>
       </c>
@@ -1949,8 +2397,14 @@
       <c r="G70">
         <v>1.5035600105238831</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70" s="4">
+        <v>15.78</v>
+      </c>
+      <c r="I70" s="4">
+        <v>136.02000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>45078</v>
       </c>
@@ -1972,8 +2426,14 @@
       <c r="G71">
         <v>0.90945122167107684</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71" s="4">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="I71" s="4">
+        <v>110.64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>45108</v>
       </c>
@@ -1995,8 +2455,14 @@
       <c r="G72">
         <v>0.87878218176931155</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72" s="4">
+        <v>13.59</v>
+      </c>
+      <c r="I72" s="4">
+        <v>112.03</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>45139</v>
       </c>
@@ -2018,8 +2484,14 @@
       <c r="G73">
         <v>1.091249879391152</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73" s="4">
+        <v>13.63</v>
+      </c>
+      <c r="I73" s="4">
+        <v>107.93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>45170</v>
       </c>
@@ -2041,8 +2513,14 @@
       <c r="G74">
         <v>1.090301645252828</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74" s="4">
+        <v>13.57</v>
+      </c>
+      <c r="I74" s="4">
+        <v>113.55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>45200</v>
       </c>
@@ -2064,8 +2542,14 @@
       <c r="G75">
         <v>0.9826132565782717</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75" s="4">
+        <v>17.52</v>
+      </c>
+      <c r="I75" s="4">
+        <v>126.86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>45231</v>
       </c>
@@ -2087,8 +2571,14 @@
       <c r="G76">
         <v>1.253878361503048</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76" s="4">
+        <v>18.14</v>
+      </c>
+      <c r="I76" s="4">
+        <v>115.32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>45261</v>
       </c>
@@ -2110,8 +2600,14 @@
       <c r="G77">
         <v>1.2614540610906451</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77" s="4">
+        <v>12.92</v>
+      </c>
+      <c r="I77" s="4">
+        <v>114.62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>45292</v>
       </c>
@@ -2133,8 +2629,14 @@
       <c r="G78">
         <v>1.0147271323864819</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78" s="4">
+        <v>12.45</v>
+      </c>
+      <c r="I78" s="4">
+        <v>107.28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>45323</v>
       </c>
@@ -2156,8 +2658,14 @@
       <c r="G79">
         <v>1.0196012324709911</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79" s="4">
+        <v>14.35</v>
+      </c>
+      <c r="I79" s="4">
+        <v>109.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>45352</v>
       </c>
@@ -2179,8 +2687,14 @@
       <c r="G80">
         <v>1.44738608879959</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="I80" s="4">
+        <v>86.38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>45383</v>
       </c>
@@ -2202,8 +2716,14 @@
       <c r="G81">
         <v>1.233584490977234</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81" s="4">
+        <v>13.01</v>
+      </c>
+      <c r="I81" s="4">
+        <v>107.46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>45413</v>
       </c>
@@ -2225,8 +2745,14 @@
       <c r="G82">
         <v>1.0522160156146569</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82" s="4">
+        <v>15.65</v>
+      </c>
+      <c r="I82" s="4">
+        <v>91.14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>45444</v>
       </c>
@@ -2248,8 +2774,14 @@
       <c r="G83">
         <v>1.408944616056562</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83" s="4">
+        <v>12.92</v>
+      </c>
+      <c r="I83" s="4">
+        <v>98.59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>45474</v>
       </c>
@@ -2271,8 +2803,14 @@
       <c r="G84">
         <v>1.4839509653945691</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84" s="4">
+        <v>12.44</v>
+      </c>
+      <c r="I84" s="4">
+        <v>99.41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>45505</v>
       </c>
@@ -2294,8 +2832,14 @@
       <c r="G85">
         <v>1.134805133582302</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H85" s="4">
+        <v>16.36</v>
+      </c>
+      <c r="I85" s="4">
+        <v>107.77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>45536</v>
       </c>
@@ -2317,8 +2861,14 @@
       <c r="G86">
         <v>0.8428892082532472</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H86" s="4">
+        <v>15</v>
+      </c>
+      <c r="I86" s="4">
+        <v>94.61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>45566</v>
       </c>
@@ -2340,8 +2890,14 @@
       <c r="G87">
         <v>1.2987488945430219</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H87" s="4">
+        <v>16.73</v>
+      </c>
+      <c r="I87" s="4">
+        <v>135.18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>45597</v>
       </c>
@@ -2363,8 +2919,14 @@
       <c r="G88">
         <v>1.41556995626024</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H88" s="4">
+        <v>23.16</v>
+      </c>
+      <c r="I88" s="4">
+        <v>95.22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>45627</v>
       </c>
@@ -2386,8 +2948,14 @@
       <c r="G89">
         <v>0.9830613143721445</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H89" s="4">
+        <v>13.51</v>
+      </c>
+      <c r="I89" s="4">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>45658</v>
       </c>
@@ -2408,6 +2976,12 @@
       </c>
       <c r="G90">
         <v>0.87296742189159271</v>
+      </c>
+      <c r="H90" s="4">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="I90" s="4">
+        <v>91.76</v>
       </c>
     </row>
   </sheetData>

--- a/data/PCA Mastersheet.xlsx
+++ b/data/PCA Mastersheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliceye/Desktop/CryptoMacroecon-Prediction-CSUREMM/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianyishen/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45D69DA9-17AF-964B-B0A6-308A5F490996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9B11A7-B502-9045-A661-FEA5FC5643BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8500" yWindow="760" windowWidth="20900" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8500" yWindow="740" windowWidth="20900" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -483,2504 +483,2118 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>42979</v>
+        <v>43466</v>
       </c>
       <c r="B2">
-        <v>6067.6982976273484</v>
+        <v>-2.0068966940716648</v>
       </c>
       <c r="C2">
-        <v>-18663.045363235989</v>
+        <v>2.2232458174523999</v>
       </c>
       <c r="D2">
-        <v>-3.8283</v>
+        <v>-3.2254200000000002</v>
+      </c>
+      <c r="E2">
+        <v>-2.5359607319999999</v>
+      </c>
+      <c r="F2">
+        <v>2.0828809901885168</v>
+      </c>
+      <c r="G2">
+        <v>-1.064137872445843</v>
       </c>
       <c r="H2" s="4">
-        <v>10.59</v>
+        <v>25.42</v>
       </c>
       <c r="I2" s="4">
-        <v>52.88</v>
+        <v>49.81</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>43009</v>
+        <v>43497</v>
       </c>
       <c r="B3">
-        <v>6152.0139159019582</v>
+        <v>-2.0488598402590088</v>
       </c>
       <c r="C3">
-        <v>-18689.272033350859</v>
+        <v>2.2958080612412912</v>
       </c>
       <c r="D3">
-        <v>-3.73861</v>
+        <v>-2.5374599999999998</v>
+      </c>
+      <c r="E3">
+        <v>-1.257932378</v>
+      </c>
+      <c r="F3">
+        <v>5.2767990045883117E-2</v>
+      </c>
+      <c r="G3">
+        <v>-1.346831505738264</v>
       </c>
       <c r="H3" s="4">
-        <v>9.51</v>
+        <v>16.57</v>
       </c>
       <c r="I3" s="4">
-        <v>51.15</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>43040</v>
+        <v>43525</v>
       </c>
       <c r="B4">
-        <v>6143.4213030997707</v>
+        <v>-2.1043050939934278</v>
       </c>
       <c r="C4">
-        <v>-18828.738277465389</v>
+        <v>2.3155095196312798</v>
       </c>
       <c r="D4">
-        <v>-4.0195100000000004</v>
+        <v>-2.4874700000000001</v>
+      </c>
+      <c r="E4">
+        <v>-2.408594785</v>
+      </c>
+      <c r="F4">
+        <v>5.0606833802294027E-2</v>
+      </c>
+      <c r="G4">
+        <v>-1.0584102031960501</v>
       </c>
       <c r="H4" s="4">
-        <v>10.18</v>
+        <v>14.78</v>
       </c>
       <c r="I4" s="4">
-        <v>46.83</v>
+        <v>58.55</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>43070</v>
+        <v>43556</v>
       </c>
       <c r="B5">
-        <v>6193.5293759723936</v>
+        <v>-2.05101500205059</v>
       </c>
       <c r="C5">
-        <v>-18878.593242557268</v>
+        <v>2.047336965537649</v>
       </c>
       <c r="D5">
-        <v>-2.55687</v>
+        <v>-2.3942800000000002</v>
+      </c>
+      <c r="E5">
+        <v>-2.687436591</v>
+      </c>
+      <c r="F5">
+        <v>-2.9342337667645371</v>
+      </c>
+      <c r="G5">
+        <v>-1.0567033620229289</v>
       </c>
       <c r="H5" s="4">
-        <v>11.28</v>
+        <v>13.71</v>
       </c>
       <c r="I5" s="4">
-        <v>46.6</v>
+        <v>49.47</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>43101</v>
+        <v>43586</v>
       </c>
       <c r="B6">
-        <v>6243.1977775654659</v>
+        <v>-2.0543785950359621</v>
       </c>
       <c r="C6">
-        <v>-18931.069454548258</v>
+        <v>2.237132359059407</v>
       </c>
       <c r="D6">
-        <v>-2.7519300000000002</v>
+        <v>-2.50604</v>
+      </c>
+      <c r="E6">
+        <v>-2.1557539819999998</v>
+      </c>
+      <c r="F6">
+        <v>1.08666821710047</v>
+      </c>
+      <c r="G6">
+        <v>-4.8541090984971849E-2</v>
       </c>
       <c r="H6" s="4">
-        <v>11.04</v>
+        <v>13.12</v>
       </c>
       <c r="I6" s="4">
-        <v>57.2</v>
+        <v>72.680000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>43132</v>
+        <v>43617</v>
       </c>
       <c r="B7">
-        <v>6149.4499559375226</v>
+        <v>-1.953956129214699</v>
       </c>
       <c r="C7">
-        <v>-19021.981822929531</v>
+        <v>2.2887557061711021</v>
       </c>
       <c r="D7">
-        <v>-3.1443500000000002</v>
+        <v>-2.6180300000000001</v>
+      </c>
+      <c r="E7">
+        <v>-3.105580078</v>
       </c>
       <c r="F7">
-        <v>1.498422566409314</v>
+        <v>1.8254315426917691</v>
       </c>
       <c r="G7">
-        <v>0.69513919930678969</v>
+        <v>-0.65237785197593379</v>
       </c>
       <c r="H7" s="4">
-        <v>13.54</v>
+        <v>18.71</v>
       </c>
       <c r="I7" s="4">
-        <v>62.97</v>
+        <v>70.430000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>43160</v>
+        <v>43647</v>
       </c>
       <c r="B8">
-        <v>6228.979246561421</v>
+        <v>-1.9438623903543639</v>
       </c>
       <c r="C8">
-        <v>-18957.80113556156</v>
+        <v>2.4062951498792269</v>
       </c>
       <c r="D8">
-        <v>-3.5678200000000002</v>
+        <v>-4.2473999999999998</v>
+      </c>
+      <c r="E8">
+        <v>-2.8845288400000002</v>
       </c>
       <c r="F8">
-        <v>1.9065448927080371</v>
+        <v>0.92033565767910996</v>
       </c>
       <c r="G8">
-        <v>0.63927494473862989</v>
+        <v>-1.527648124400544</v>
       </c>
       <c r="H8" s="4">
-        <v>19.850000000000001</v>
+        <v>15.08</v>
       </c>
       <c r="I8" s="4">
-        <v>58.54</v>
+        <v>55.25</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>43191</v>
+        <v>43678</v>
       </c>
       <c r="B9">
-        <v>6309.4964355597367</v>
+        <v>-1.8466504722165249</v>
       </c>
       <c r="C9">
-        <v>-19013.606967183179</v>
+        <v>2.114000170781916</v>
       </c>
       <c r="D9">
-        <v>-4.4220600000000001</v>
+        <v>-4.5412800000000004</v>
+      </c>
+      <c r="E9">
+        <v>-3.288028197</v>
       </c>
       <c r="F9">
-        <v>2.6035833533201949</v>
+        <v>1.494021114842714</v>
       </c>
       <c r="G9">
-        <v>0.50098847876597907</v>
+        <v>-0.51442583133087161</v>
       </c>
       <c r="H9" s="4">
-        <v>19.97</v>
+        <v>16.12</v>
       </c>
       <c r="I9" s="4">
-        <v>50.35</v>
+        <v>86.89</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>43221</v>
+        <v>43709</v>
       </c>
       <c r="B10">
-        <v>6225.6629190925269</v>
+        <v>-1.875056349095324</v>
       </c>
       <c r="C10">
-        <v>-19110.55013214767</v>
+        <v>2.3021703198857288</v>
       </c>
       <c r="D10">
-        <v>-5.1765100000000004</v>
+        <v>-4.6376900000000001</v>
+      </c>
+      <c r="E10">
+        <v>-3.791622861</v>
       </c>
       <c r="F10">
-        <v>2.5014515129196528</v>
+        <v>-0.68955748887622603</v>
       </c>
       <c r="G10">
-        <v>0.66696769061145011</v>
+        <v>-0.8162777589069532</v>
       </c>
       <c r="H10" s="4">
-        <v>15.93</v>
+        <v>18.98</v>
       </c>
       <c r="I10" s="4">
-        <v>60.54</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>43252</v>
+        <v>43739</v>
       </c>
       <c r="B11">
-        <v>6238.2806218549331</v>
+        <v>-1.9638879963716791</v>
       </c>
       <c r="C11">
-        <v>-19106.882795022429</v>
+        <v>2.4523680525986991</v>
       </c>
       <c r="D11">
-        <v>-4.8790100000000001</v>
+        <v>-4.5844699999999996</v>
+      </c>
+      <c r="E11">
+        <v>-4.8783652540000002</v>
       </c>
       <c r="F11">
-        <v>3.2437477989314858</v>
+        <v>0.48170116262825452</v>
       </c>
       <c r="G11">
-        <v>0.75985697200250979</v>
+        <v>-0.22352867977078619</v>
       </c>
       <c r="H11" s="4">
-        <v>15.43</v>
+        <v>16.239999999999998</v>
       </c>
       <c r="I11" s="4">
-        <v>51.17</v>
+        <v>65.88</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>43282</v>
+        <v>43770</v>
       </c>
       <c r="B12">
-        <v>6302.6364876139678</v>
+        <v>-2.0001060340768988</v>
       </c>
       <c r="C12">
-        <v>-19177.51005511668</v>
+        <v>2.4434282030219161</v>
       </c>
       <c r="D12">
-        <v>-5.1900500000000003</v>
+        <v>-4.9736399999999996</v>
+      </c>
+      <c r="E12">
+        <v>-5.309184321</v>
       </c>
       <c r="F12">
-        <v>3.2104433162586639</v>
+        <v>-0.3936232475267003</v>
       </c>
       <c r="G12">
-        <v>0.7351609440187733</v>
+        <v>-0.67321399620402023</v>
       </c>
       <c r="H12" s="4">
-        <v>16.09</v>
+        <v>13.22</v>
       </c>
       <c r="I12" s="4">
-        <v>46.5</v>
+        <v>56.57</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>43313</v>
+        <v>43800</v>
       </c>
       <c r="B13">
-        <v>6272.2977047905924</v>
+        <v>-2.041663704839626</v>
       </c>
       <c r="C13">
-        <v>-19210.99471661339</v>
+        <v>2.5078409496592151</v>
       </c>
       <c r="D13">
-        <v>-3.1889699999999999</v>
+        <v>-4.3675300000000004</v>
+      </c>
+      <c r="E13">
+        <v>-5.2628458550000001</v>
       </c>
       <c r="F13">
-        <v>3.5457867779400098</v>
+        <v>-1.002538878396632</v>
       </c>
       <c r="G13">
-        <v>1.222581111621023</v>
+        <v>0.90153250882368652</v>
       </c>
       <c r="H13" s="4">
-        <v>12.83</v>
+        <v>12.62</v>
       </c>
       <c r="I13" s="4">
-        <v>50.71</v>
+        <v>58.28</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>43344</v>
+        <v>43831</v>
       </c>
       <c r="B14">
-        <v>6283.7868905164269</v>
+        <v>-2.307585278347219</v>
       </c>
       <c r="C14">
-        <v>-19194.681165467471</v>
+        <v>2.513658269322002</v>
       </c>
       <c r="D14">
-        <v>-5.1286300000000002</v>
+        <v>-4.0042400000000002</v>
+      </c>
+      <c r="E14">
+        <v>-5.3176719109999997</v>
       </c>
       <c r="F14">
-        <v>2.7486683399995671</v>
+        <v>-1.532124330627326</v>
       </c>
       <c r="G14">
-        <v>1.21168818638352</v>
+        <v>-0.50618576349694422</v>
       </c>
       <c r="H14" s="4">
-        <v>12.86</v>
+        <v>13.78</v>
       </c>
       <c r="I14" s="4">
-        <v>46.16</v>
+        <v>72.98</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>43374</v>
+        <v>43862</v>
       </c>
       <c r="B15">
-        <v>6333.8102563120483</v>
+        <v>-2.294578217704685</v>
       </c>
       <c r="C15">
-        <v>-19199.459063301689</v>
+        <v>2.5517715408198161</v>
       </c>
       <c r="D15">
-        <v>-4.2619499999999997</v>
+        <v>-4.6160199999999998</v>
+      </c>
+      <c r="E15">
+        <v>-5.2957247519999999</v>
       </c>
       <c r="F15">
-        <v>2.5376331747612451</v>
+        <v>1.896026021690612</v>
       </c>
       <c r="G15">
-        <v>1.0412906797666159</v>
+        <v>3.9868332295613591</v>
       </c>
       <c r="H15" s="4">
-        <v>12.12</v>
+        <v>18.84</v>
       </c>
       <c r="I15" s="4">
-        <v>60.13</v>
+        <v>109.67</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>43405</v>
+        <v>43891</v>
       </c>
       <c r="B16">
-        <v>6273.8021577666514</v>
+        <v>-2.8071128984106202</v>
       </c>
       <c r="C16">
-        <v>-19227.043080243278</v>
+        <v>1.260871227733156</v>
       </c>
       <c r="D16">
-        <v>-2.98116</v>
+        <v>-4.5927199999999999</v>
+      </c>
+      <c r="E16">
+        <v>-4.6662354879999999</v>
       </c>
       <c r="F16">
-        <v>3.8550316523644619</v>
+        <v>0.44621695876850259</v>
       </c>
       <c r="G16">
-        <v>1.1622393564132669</v>
+        <v>-0.2380558943236652</v>
       </c>
       <c r="H16" s="4">
-        <v>21.23</v>
+        <v>40.11</v>
       </c>
       <c r="I16" s="4">
-        <v>52.43</v>
+        <v>83.87</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>43435</v>
+        <v>43922</v>
       </c>
       <c r="B17">
-        <v>6425.7913271809884</v>
+        <v>-5.2103849761381964</v>
       </c>
       <c r="C17">
-        <v>-19231.571439959949</v>
+        <v>-2.1794583128926019</v>
       </c>
       <c r="D17">
-        <v>-2.9990999999999999</v>
+        <v>-4.0925700000000003</v>
+      </c>
+      <c r="E17">
+        <v>-4.2301036549999997</v>
       </c>
       <c r="F17">
-        <v>2.9811033443836452</v>
+        <v>5.2988562250974756</v>
       </c>
       <c r="G17">
-        <v>0.36142586409146982</v>
+        <v>-1.5133422864453629</v>
       </c>
       <c r="H17" s="4">
-        <v>18.07</v>
+        <v>53.54</v>
       </c>
       <c r="I17" s="4">
-        <v>66.58</v>
+        <v>53.59</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>43466</v>
+        <v>43952</v>
       </c>
       <c r="B18">
-        <v>6352.8914714864704</v>
+        <v>-4.4461712557140212</v>
       </c>
       <c r="C18">
-        <v>-19327.522646156722</v>
+        <v>-2.161360222957863</v>
       </c>
       <c r="D18">
-        <v>-3.2254200000000002</v>
+        <v>-5.1850500000000004</v>
       </c>
       <c r="E18">
-        <v>-2.5359607319999999</v>
+        <v>-5.3687284650000002</v>
       </c>
       <c r="F18">
-        <v>2.9018262240920558</v>
+        <v>0.5647439533869536</v>
       </c>
       <c r="G18">
-        <v>0.27953866868116672</v>
+        <v>-0.9088690685684726</v>
       </c>
       <c r="H18" s="4">
-        <v>25.42</v>
+        <v>34.15</v>
       </c>
       <c r="I18" s="4">
-        <v>49.81</v>
+        <v>51.55</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>43497</v>
+        <v>43983</v>
       </c>
       <c r="B19">
-        <v>6328.9858776967376</v>
+        <v>-4.002146292799611</v>
       </c>
       <c r="C19">
-        <v>-19287.008049350501</v>
+        <v>-1.248345448575539</v>
       </c>
       <c r="D19">
-        <v>-2.5374599999999998</v>
+        <v>-5.5826599999999997</v>
       </c>
       <c r="E19">
-        <v>-1.257932378</v>
+        <v>-5.8339600880000004</v>
       </c>
       <c r="F19">
-        <v>3.933084218170555</v>
+        <v>-0.28186550433893121</v>
       </c>
       <c r="G19">
-        <v>0.14064436052754969</v>
+        <v>-1.13150032472129</v>
       </c>
       <c r="H19" s="4">
-        <v>16.57</v>
+        <v>27.51</v>
       </c>
       <c r="I19" s="4">
-        <v>47.22</v>
+        <v>54.13</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>43525</v>
+        <v>44013</v>
       </c>
       <c r="B20">
-        <v>6352.3890109648528</v>
+        <v>-2.9651626691184401</v>
       </c>
       <c r="C20">
-        <v>-19344.606256794421</v>
+        <v>-1.42555174912788</v>
       </c>
       <c r="D20">
-        <v>-2.4874700000000001</v>
+        <v>-5.4353100000000003</v>
       </c>
       <c r="E20">
-        <v>-2.408594785</v>
+        <v>-5.5024969879999999</v>
       </c>
       <c r="F20">
-        <v>3.8744651332232709</v>
+        <v>-2.6177366302806662</v>
       </c>
       <c r="G20">
-        <v>0.32423672889485822</v>
+        <v>-0.67986214428639202</v>
       </c>
       <c r="H20" s="4">
-        <v>14.78</v>
+        <v>30.43</v>
       </c>
       <c r="I20" s="4">
-        <v>58.55</v>
+        <v>41.98</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>43556</v>
+        <v>44044</v>
       </c>
       <c r="B21">
-        <v>6478.9960270987895</v>
+        <v>-2.8667241337628191</v>
       </c>
       <c r="C21">
-        <v>-19402.689817221632</v>
+        <v>-1.1674407643290869</v>
       </c>
       <c r="D21">
-        <v>-2.3942800000000002</v>
+        <v>-5.3307799999999999</v>
       </c>
       <c r="E21">
-        <v>-2.687436591</v>
+        <v>-5.8096046330000002</v>
       </c>
       <c r="F21">
-        <v>5.2976444119682391</v>
+        <v>-2.9702451146679801E-2</v>
       </c>
       <c r="G21">
-        <v>0.46782093003803282</v>
+        <v>1.297091661096839</v>
       </c>
       <c r="H21" s="4">
-        <v>13.71</v>
+        <v>24.46</v>
       </c>
       <c r="I21" s="4">
-        <v>49.47</v>
+        <v>47.02</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>43586</v>
+        <v>44075</v>
       </c>
       <c r="B22">
-        <v>6402.2694443316377</v>
+        <v>-2.971190111280031</v>
       </c>
       <c r="C22">
-        <v>-19453.45879757042</v>
+        <v>-1.334126391792416</v>
       </c>
       <c r="D22">
-        <v>-2.50604</v>
+        <v>-5.2921199999999997</v>
       </c>
       <c r="E22">
-        <v>-2.1557539819999998</v>
+        <v>-5.7019230260000002</v>
       </c>
       <c r="F22">
-        <v>3.1201744821560791</v>
+        <v>-0.24237081167162519</v>
       </c>
       <c r="G22">
-        <v>0.95880376422001556</v>
+        <v>-0.26384350786760741</v>
       </c>
       <c r="H22" s="4">
-        <v>13.12</v>
+        <v>26.41</v>
       </c>
       <c r="I22" s="4">
-        <v>72.680000000000007</v>
+        <v>39.21</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>43617</v>
+        <v>44105</v>
       </c>
       <c r="B23">
-        <v>6481.5089274322909</v>
+        <v>-2.455246423296507</v>
       </c>
       <c r="C23">
-        <v>-19559.217646683981</v>
+        <v>-0.96868030664254778</v>
       </c>
       <c r="D23">
-        <v>-2.6180300000000001</v>
+        <v>-4.95207</v>
       </c>
       <c r="E23">
-        <v>-3.105580078</v>
+        <v>-6.2569972810000003</v>
       </c>
       <c r="F23">
-        <v>2.912832314629656</v>
+        <v>0.53815573159558661</v>
       </c>
       <c r="G23">
-        <v>0.44725194785326072</v>
+        <v>-0.91336418077256054</v>
       </c>
       <c r="H23" s="4">
-        <v>18.71</v>
+        <v>26.37</v>
       </c>
       <c r="I23" s="4">
-        <v>70.430000000000007</v>
+        <v>61.91</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>43647</v>
+        <v>44136</v>
       </c>
       <c r="B24">
-        <v>6539.1583429472439</v>
+        <v>-2.4922251622085279</v>
       </c>
       <c r="C24">
-        <v>-19626.077145532068</v>
+        <v>-1.352743757620821</v>
       </c>
       <c r="D24">
-        <v>-4.2473999999999998</v>
+        <v>-4.9629099999999999</v>
       </c>
       <c r="E24">
-        <v>-2.8845288400000002</v>
+        <v>-6.3055162810000001</v>
       </c>
       <c r="F24">
-        <v>3.5597975705631031</v>
+        <v>-2.7325141820731211</v>
       </c>
       <c r="G24">
-        <v>6.2361471592595849E-2</v>
+        <v>-1.492963681764945</v>
       </c>
       <c r="H24" s="4">
-        <v>15.08</v>
+        <v>38.020000000000003</v>
       </c>
       <c r="I24" s="4">
-        <v>55.25</v>
+        <v>40.840000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>43678</v>
+        <v>44166</v>
       </c>
       <c r="B25">
-        <v>6503.5382571930604</v>
+        <v>-2.495649521970503</v>
       </c>
       <c r="C25">
-        <v>-19656.276384380169</v>
+        <v>-1.2639490855792579</v>
       </c>
       <c r="D25">
-        <v>-4.5412800000000004</v>
+        <v>-5.1046399999999998</v>
       </c>
       <c r="E25">
-        <v>-3.288028197</v>
+        <v>-6.316151412</v>
       </c>
       <c r="F25">
-        <v>3.0376301669011969</v>
+        <v>2.1266160842964892</v>
       </c>
       <c r="G25">
-        <v>0.70579391357463617</v>
+        <v>1.561046516796606E-2</v>
       </c>
       <c r="H25" s="4">
-        <v>16.12</v>
+        <v>20.57</v>
       </c>
       <c r="I25" s="4">
-        <v>86.89</v>
+        <v>48.98</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>43709</v>
+        <v>44197</v>
       </c>
       <c r="B26">
-        <v>6577.2533139688094</v>
+        <v>-2.0905075334755749</v>
       </c>
       <c r="C26">
-        <v>-19681.776616120282</v>
+        <v>-1.4306065617668231</v>
       </c>
       <c r="D26">
-        <v>-4.6376900000000001</v>
+        <v>-4.7200899999999999</v>
       </c>
       <c r="E26">
-        <v>-3.791622861</v>
+        <v>-5.8052365129999997</v>
       </c>
       <c r="F26">
-        <v>4.1399884794146633</v>
+        <v>2.263806957625444</v>
       </c>
       <c r="G26">
-        <v>0.51046067853253052</v>
+        <v>0.30234434666689769</v>
       </c>
       <c r="H26" s="4">
-        <v>18.98</v>
+        <v>22.75</v>
       </c>
       <c r="I26" s="4">
-        <v>77.2</v>
+        <v>47.41</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>43739</v>
+        <v>44228</v>
       </c>
       <c r="B27">
-        <v>6572.0874075941911</v>
+        <v>-2.128266899953041</v>
       </c>
       <c r="C27">
-        <v>-19678.725699625389</v>
+        <v>-1.5113972065854779</v>
       </c>
       <c r="D27">
-        <v>-4.5844699999999996</v>
+        <v>-4.1518199999999998</v>
       </c>
       <c r="E27">
-        <v>-4.8783652540000002</v>
+        <v>-4.9725546219999996</v>
       </c>
       <c r="F27">
-        <v>3.4360613293257609</v>
+        <v>4.6053817328326927</v>
       </c>
       <c r="G27">
-        <v>0.81236119936591367</v>
+        <v>1.390132636908598</v>
       </c>
       <c r="H27" s="4">
-        <v>16.239999999999998</v>
+        <v>33.090000000000003</v>
       </c>
       <c r="I27" s="4">
-        <v>65.88</v>
+        <v>75.66</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>43770</v>
+        <v>44256</v>
       </c>
       <c r="B28">
-        <v>6605.3225922476668</v>
+        <v>-2.05086836904611</v>
       </c>
       <c r="C28">
-        <v>-19789.78727393275</v>
+        <v>-1.202619152459528</v>
       </c>
       <c r="D28">
-        <v>-4.9736399999999996</v>
+        <v>-5.2756400000000001</v>
       </c>
       <c r="E28">
-        <v>-5.309184321</v>
+        <v>-5.6989230539999998</v>
       </c>
       <c r="F28">
-        <v>3.9493388975147141</v>
+        <v>3.2023060539823129</v>
       </c>
       <c r="G28">
-        <v>0.62815212540924792</v>
+        <v>0.49852947150093818</v>
       </c>
       <c r="H28" s="4">
-        <v>13.22</v>
+        <v>27.95</v>
       </c>
       <c r="I28" s="4">
-        <v>56.57</v>
+        <v>71.27</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>43800</v>
+        <v>44287</v>
       </c>
       <c r="B29">
-        <v>6739.4772994061987</v>
+        <v>-1.6893209292271569</v>
       </c>
       <c r="C29">
-        <v>-19771.637646502018</v>
+        <v>-1.0253990547107159</v>
       </c>
       <c r="D29">
-        <v>-4.3675300000000004</v>
+        <v>-3.8813800000000001</v>
       </c>
       <c r="E29">
-        <v>-5.2628458550000001</v>
+        <v>-6.2737880280000002</v>
       </c>
       <c r="F29">
-        <v>3.840178906009506</v>
+        <v>0.9267097406436593</v>
       </c>
       <c r="G29">
-        <v>1.5921292008214769</v>
+        <v>-0.14234130590111671</v>
       </c>
       <c r="H29" s="4">
-        <v>12.62</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="I29" s="4">
-        <v>58.28</v>
+        <v>58.13</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>43831</v>
+        <v>44317</v>
       </c>
       <c r="B30">
-        <v>6637.7175217578388</v>
+        <v>-1.562382571661326</v>
       </c>
       <c r="C30">
-        <v>-19681.836869893548</v>
+        <v>-1.1973876190687029</v>
       </c>
       <c r="D30">
-        <v>-4.0042400000000002</v>
+        <v>-5.0007000000000001</v>
       </c>
       <c r="E30">
-        <v>-5.3176719109999997</v>
+        <v>-5.9757172059999997</v>
       </c>
       <c r="F30">
-        <v>4.4484550856655174</v>
+        <v>2.45663288074824</v>
       </c>
       <c r="G30">
-        <v>0.66190083656537702</v>
+        <v>1.811776155046785</v>
       </c>
       <c r="H30" s="4">
-        <v>13.78</v>
+        <v>18.61</v>
       </c>
       <c r="I30" s="4">
-        <v>72.98</v>
+        <v>52.04</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>43862</v>
+        <v>44348</v>
       </c>
       <c r="B31">
-        <v>6633.423604639016</v>
+        <v>-1.509691039798168</v>
       </c>
       <c r="C31">
-        <v>-19725.02242035513</v>
+        <v>-1.0274869555268711</v>
       </c>
       <c r="D31">
-        <v>-4.6160199999999998</v>
+        <v>-4.90524</v>
       </c>
       <c r="E31">
-        <v>-5.2957247519999999</v>
+        <v>-5.8771989790000001</v>
       </c>
       <c r="F31">
-        <v>1.7008090035015471</v>
+        <v>5.438827158628313</v>
       </c>
       <c r="G31">
-        <v>3.387118366876344</v>
+        <v>-0.2374095206910192</v>
       </c>
       <c r="H31" s="4">
-        <v>18.84</v>
+        <v>16.760000000000002</v>
       </c>
       <c r="I31" s="4">
-        <v>109.67</v>
+        <v>57.27</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>43891</v>
+        <v>44378</v>
       </c>
       <c r="B32">
-        <v>6802.1447459184355</v>
+        <v>-1.1558809178236029</v>
       </c>
       <c r="C32">
-        <v>-18790.442627951641</v>
+        <v>-1.0566497713531759</v>
       </c>
       <c r="D32">
-        <v>-4.5927199999999999</v>
+        <v>-5.9659599999999999</v>
       </c>
       <c r="E32">
-        <v>-4.6662354879999999</v>
+        <v>-6.6916536029999998</v>
       </c>
       <c r="F32">
-        <v>3.456887267717049</v>
+        <v>2.260891979730403</v>
       </c>
       <c r="G32">
-        <v>0.78030699591151698</v>
+        <v>0.52873564825677111</v>
       </c>
       <c r="H32" s="4">
-        <v>40.11</v>
+        <v>15.83</v>
       </c>
       <c r="I32" s="4">
-        <v>83.87</v>
+        <v>61.19</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>43922</v>
+        <v>44409</v>
       </c>
       <c r="B33">
-        <v>7100.4518933832969</v>
+        <v>-0.99008421230859633</v>
       </c>
       <c r="C33">
-        <v>-16754.16552529332</v>
+        <v>-1.5013324638794661</v>
       </c>
       <c r="D33">
-        <v>-4.0925700000000003</v>
+        <v>-6.0829800000000001</v>
       </c>
       <c r="E33">
-        <v>-4.2301036549999997</v>
+        <v>-6.5611131240000002</v>
       </c>
       <c r="F33">
-        <v>1.5161687287858401</v>
+        <v>-0.37445283545547059</v>
       </c>
       <c r="G33">
-        <v>-9.4575226559991663E-2</v>
+        <v>-5.3739850841705419E-2</v>
       </c>
       <c r="H33" s="4">
-        <v>53.54</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="I33" s="4">
-        <v>53.59</v>
+        <v>59.54</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>43952</v>
+        <v>44440</v>
       </c>
       <c r="B34">
-        <v>18392.77156862332</v>
+        <v>-0.98414479263959442</v>
       </c>
       <c r="C34">
-        <v>-15970.12617443722</v>
+        <v>-1.445749056032827</v>
       </c>
       <c r="D34">
-        <v>-5.1850500000000004</v>
+        <v>-5.8085800000000001</v>
       </c>
       <c r="E34">
-        <v>-5.3687284650000002</v>
+        <v>-6.3580503080000002</v>
       </c>
       <c r="F34">
-        <v>3.5627939637764769</v>
+        <v>1.3526238084192841</v>
       </c>
       <c r="G34">
-        <v>0.48015483072056359</v>
+        <v>0.54744234374760725</v>
       </c>
       <c r="H34" s="4">
-        <v>34.15</v>
+        <v>16.48</v>
       </c>
       <c r="I34" s="4">
-        <v>51.55</v>
+        <v>61.07</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>43983</v>
+        <v>44470</v>
       </c>
       <c r="B35">
-        <v>18898.159859685391</v>
+        <v>-0.35781356518067581</v>
       </c>
       <c r="C35">
-        <v>-16745.070827052768</v>
+        <v>-1.3733803554770561</v>
       </c>
       <c r="D35">
-        <v>-5.5826599999999997</v>
+        <v>-5.9617199999999997</v>
       </c>
       <c r="E35">
-        <v>-5.8339600880000004</v>
+        <v>-6.6725433499999998</v>
       </c>
       <c r="F35">
-        <v>4.0346425946562734</v>
+        <v>1.6552290299684671</v>
       </c>
       <c r="G35">
-        <v>0.36336360296791281</v>
+        <v>-0.3190057535873953</v>
       </c>
       <c r="H35" s="4">
-        <v>27.51</v>
+        <v>23.14</v>
       </c>
       <c r="I35" s="4">
-        <v>54.13</v>
+        <v>75.45</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>44013</v>
+        <v>44501</v>
       </c>
       <c r="B36">
-        <v>19224.388531274359</v>
+        <v>-0.22810791810692399</v>
       </c>
       <c r="C36">
-        <v>-17335.648706597989</v>
+        <v>-1.4101136165071411</v>
       </c>
       <c r="D36">
-        <v>-5.4353100000000003</v>
+        <v>-6.20878</v>
       </c>
       <c r="E36">
-        <v>-5.5024969879999999</v>
+        <v>-6.4740654419999997</v>
       </c>
       <c r="F36">
-        <v>5.0116280582367736</v>
+        <v>-0.1493052122750437</v>
       </c>
       <c r="G36">
-        <v>0.63774288661647804</v>
+        <v>0.36426396331325528</v>
       </c>
       <c r="H36" s="4">
-        <v>30.43</v>
+        <v>16.260000000000002</v>
       </c>
       <c r="I36" s="4">
-        <v>41.98</v>
+        <v>84.04</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>44044</v>
+        <v>44531</v>
       </c>
       <c r="B37">
-        <v>19343.986618652001</v>
+        <v>-0.17314190738810961</v>
       </c>
       <c r="C37">
-        <v>-17461.336191074919</v>
+        <v>-1.2331851027232581</v>
       </c>
       <c r="D37">
-        <v>-5.3307799999999999</v>
+        <v>-5.8412899999999999</v>
       </c>
       <c r="E37">
-        <v>-5.8096046330000002</v>
+        <v>-6.5245967690000004</v>
       </c>
       <c r="F37">
-        <v>3.3049332739107262</v>
+        <v>0.27702655025212769</v>
       </c>
       <c r="G37">
-        <v>1.7287633053973579</v>
+        <v>-0.52668318331155539</v>
       </c>
       <c r="H37" s="4">
-        <v>24.46</v>
+        <v>27.19</v>
       </c>
       <c r="I37" s="4">
-        <v>47.02</v>
+        <v>77.099999999999994</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>44075</v>
+        <v>44562</v>
       </c>
       <c r="B38">
-        <v>19648.942574136199</v>
+        <v>0.23472146307069619</v>
       </c>
       <c r="C38">
-        <v>-17612.768747837381</v>
+        <v>-1.1362559727889039</v>
       </c>
       <c r="D38">
-        <v>-5.2921199999999997</v>
+        <v>-6.1100199999999996</v>
       </c>
       <c r="E38">
-        <v>-5.7019230260000002</v>
+        <v>-6.5969415529999997</v>
       </c>
       <c r="F38">
-        <v>3.7855928171679301</v>
+        <v>0.60286190676499218</v>
       </c>
       <c r="G38">
-        <v>0.81737013204221531</v>
+        <v>8.3248902741587555E-2</v>
       </c>
       <c r="H38" s="4">
-        <v>26.41</v>
+        <v>17.22</v>
       </c>
       <c r="I38" s="4">
-        <v>39.21</v>
+        <v>85.14</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>44105</v>
+        <v>44593</v>
       </c>
       <c r="B39">
-        <v>19828.763353704431</v>
+        <v>0.33461373541214251</v>
       </c>
       <c r="C39">
-        <v>-17829.15051402256</v>
+        <v>-1.2721007311371171</v>
       </c>
       <c r="D39">
-        <v>-4.95207</v>
+        <v>-5.7752600000000003</v>
       </c>
       <c r="E39">
-        <v>-6.2569972810000003</v>
+        <v>-6.7500800969999997</v>
       </c>
       <c r="F39">
-        <v>3.6013145131629631</v>
+        <v>0.39241510643416622</v>
       </c>
       <c r="G39">
-        <v>0.40465515504101801</v>
+        <v>-0.4386962183184393</v>
       </c>
       <c r="H39" s="4">
-        <v>26.37</v>
+        <v>24.83</v>
       </c>
       <c r="I39" s="4">
-        <v>61.91</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>44136</v>
+        <v>44621</v>
       </c>
       <c r="B40">
-        <v>20123.608833005848</v>
+        <v>0.55523596785337737</v>
       </c>
       <c r="C40">
-        <v>-17599.173451688919</v>
+        <v>-1.2733198235788661</v>
       </c>
       <c r="D40">
-        <v>-4.9629099999999999</v>
+        <v>-5.8529999999999998</v>
       </c>
       <c r="E40">
-        <v>-6.3055162810000001</v>
+        <v>-7.2639453920000001</v>
       </c>
       <c r="F40">
-        <v>5.2771994093212147</v>
+        <v>0.81985018291962275</v>
       </c>
       <c r="G40">
-        <v>0.2006908060245565</v>
+        <v>-0.44469525562805828</v>
       </c>
       <c r="H40" s="4">
-        <v>38.020000000000003</v>
+        <v>30.15</v>
       </c>
       <c r="I40" s="4">
-        <v>40.840000000000003</v>
+        <v>106.88</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>44166</v>
+        <v>44652</v>
       </c>
       <c r="B41">
-        <v>20453.988213287561</v>
+        <v>0.9102394839686232</v>
       </c>
       <c r="C41">
-        <v>-17682.5696533995</v>
+        <v>-1.176758075978366</v>
       </c>
       <c r="D41">
-        <v>-5.1046399999999998</v>
+        <v>-5.7241400000000002</v>
       </c>
       <c r="E41">
-        <v>-6.316151412</v>
+        <v>-7.1713131150000002</v>
       </c>
       <c r="F41">
-        <v>2.6052837265179258</v>
+        <v>-0.63351141050690385</v>
       </c>
       <c r="G41">
-        <v>0.6584713510560225</v>
+        <v>-0.34546368540099048</v>
       </c>
       <c r="H41" s="4">
-        <v>20.57</v>
+        <v>20.56</v>
       </c>
       <c r="I41" s="4">
-        <v>48.98</v>
+        <v>128.4</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>44197</v>
+        <v>44682</v>
       </c>
       <c r="B42">
-        <v>20645.158867623461</v>
+        <v>1.176854037300374</v>
       </c>
       <c r="C42">
-        <v>-18031.833849187169</v>
+        <v>-1.182082402973776</v>
       </c>
       <c r="D42">
-        <v>-4.7200899999999999</v>
+        <v>-7.5625999999999998</v>
       </c>
       <c r="E42">
-        <v>-5.8052365129999997</v>
+        <v>-7.0931428910000003</v>
       </c>
       <c r="F42">
-        <v>2.4646666404426258</v>
+        <v>-0.45185220579279972</v>
       </c>
       <c r="G42">
-        <v>0.73775990613938214</v>
+        <v>0.77530366762894576</v>
       </c>
       <c r="H42" s="4">
-        <v>22.75</v>
+        <v>33.4</v>
       </c>
       <c r="I42" s="4">
-        <v>47.41</v>
+        <v>107.12</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>44228</v>
+        <v>44713</v>
       </c>
       <c r="B43">
-        <v>20728.651121855961</v>
+        <v>1.4238446370658451</v>
       </c>
       <c r="C43">
-        <v>-17749.166318029969</v>
+        <v>-1.47753575102556</v>
       </c>
       <c r="D43">
-        <v>-4.1518199999999998</v>
+        <v>-5.4974999999999996</v>
       </c>
       <c r="E43">
-        <v>-4.9725546219999996</v>
+        <v>-5.0506437220000002</v>
       </c>
       <c r="F43">
-        <v>1.080131176728832</v>
+        <v>2.5491532068979059</v>
       </c>
       <c r="G43">
-        <v>1.597578269986387</v>
+        <v>-0.25837601413845129</v>
       </c>
       <c r="H43" s="4">
-        <v>33.090000000000003</v>
+        <v>26.19</v>
       </c>
       <c r="I43" s="4">
-        <v>75.66</v>
+        <v>135.5</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>44256</v>
+        <v>44743</v>
       </c>
       <c r="B44">
-        <v>21214.35140101787</v>
+        <v>1.4275285951776551</v>
       </c>
       <c r="C44">
-        <v>-18075.7155097248</v>
+        <v>-1.4395108902389231</v>
       </c>
       <c r="D44">
-        <v>-5.2756400000000001</v>
+        <v>-5.8789499999999997</v>
       </c>
       <c r="E44">
-        <v>-5.6989230539999998</v>
+        <v>-6.7624564139999999</v>
       </c>
       <c r="F44">
-        <v>1.9872335641764489</v>
+        <v>2.1014757864874949</v>
       </c>
       <c r="G44">
-        <v>1.042133969392381</v>
+        <v>-0.51217854788985973</v>
       </c>
       <c r="H44" s="4">
-        <v>27.95</v>
+        <v>28.71</v>
       </c>
       <c r="I44" s="4">
-        <v>71.27</v>
+        <v>116.36</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>44287</v>
+        <v>44774</v>
       </c>
       <c r="B45">
-        <v>21664.6513709674</v>
+        <v>1.574658712218185</v>
       </c>
       <c r="C45">
-        <v>-18217.518670257621</v>
+        <v>-0.91004889544601386</v>
       </c>
       <c r="D45">
-        <v>-3.8813800000000001</v>
+        <v>-6.7389599999999996</v>
       </c>
       <c r="E45">
-        <v>-6.2737880280000002</v>
+        <v>-7.1084182900000004</v>
       </c>
       <c r="F45">
-        <v>3.20064267155648</v>
+        <v>0.211087706240569</v>
       </c>
       <c r="G45">
-        <v>0.80294359179841102</v>
+        <v>-0.75567304203926122</v>
       </c>
       <c r="H45" s="4">
-        <v>19.399999999999999</v>
+        <v>21.33</v>
       </c>
       <c r="I45" s="4">
-        <v>58.13</v>
+        <v>124.84</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>44317</v>
+        <v>44805</v>
       </c>
       <c r="B46">
-        <v>21739.742085584909</v>
+        <v>1.586305282326036</v>
       </c>
       <c r="C46">
-        <v>-18213.087255933151</v>
+        <v>-0.8530891778443197</v>
       </c>
       <c r="D46">
-        <v>-5.0007000000000001</v>
+        <v>-7.3659499999999998</v>
       </c>
       <c r="E46">
-        <v>-5.9757172059999997</v>
+        <v>-7.6211800910000003</v>
       </c>
       <c r="F46">
-        <v>1.9667768354592701</v>
+        <v>-0.46174120386213408</v>
       </c>
       <c r="G46">
-        <v>1.7080709315477951</v>
+        <v>-0.13180547873138629</v>
       </c>
       <c r="H46" s="4">
-        <v>18.61</v>
+        <v>25.87</v>
       </c>
       <c r="I46" s="4">
-        <v>52.04</v>
+        <v>141.88999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>44348</v>
+        <v>44835</v>
       </c>
       <c r="B47">
-        <v>21883.364234914949</v>
+        <v>1.549366564038509</v>
       </c>
       <c r="C47">
-        <v>-18246.498216066859</v>
+        <v>-0.82848829376815458</v>
       </c>
       <c r="D47">
-        <v>-4.90524</v>
+        <v>-6.4380699999999997</v>
       </c>
       <c r="E47">
-        <v>-5.8771989790000001</v>
+        <v>-7.3534945699999996</v>
       </c>
       <c r="F47">
-        <v>1.131142131985869</v>
+        <v>-0.1235343051248896</v>
       </c>
       <c r="G47">
-        <v>0.58548690962253747</v>
+        <v>-0.2941078710369216</v>
       </c>
       <c r="H47" s="4">
-        <v>16.760000000000002</v>
+        <v>31.62</v>
       </c>
       <c r="I47" s="4">
-        <v>57.27</v>
+        <v>147.91999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>44378</v>
+        <v>44866</v>
       </c>
       <c r="B48">
-        <v>22063.011016473039</v>
+        <v>1.7138263978357871</v>
       </c>
       <c r="C48">
-        <v>-18383.886023922161</v>
+        <v>-0.90505966074410715</v>
       </c>
       <c r="D48">
-        <v>-5.9659599999999999</v>
+        <v>-6.6310700000000002</v>
       </c>
       <c r="E48">
-        <v>-6.6916536029999998</v>
+        <v>-7.6880338930000001</v>
       </c>
       <c r="F48">
-        <v>2.4017672602099012</v>
+        <v>-1.924857545487396</v>
       </c>
       <c r="G48">
-        <v>1.1442300473160589</v>
+        <v>1.633119922592186</v>
       </c>
       <c r="H48" s="4">
-        <v>15.83</v>
+        <v>25.88</v>
       </c>
       <c r="I48" s="4">
-        <v>61.19</v>
+        <v>127.27</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>44409</v>
+        <v>44896</v>
       </c>
       <c r="B49">
-        <v>22270.295068397369</v>
+        <v>1.766581235248623</v>
       </c>
       <c r="C49">
-        <v>-18354.980519791821</v>
+        <v>-0.53388975659091376</v>
       </c>
       <c r="D49">
-        <v>-6.0829800000000001</v>
+        <v>-4.44252</v>
       </c>
       <c r="E49">
-        <v>-6.5611131240000002</v>
+        <v>-5.918832418</v>
       </c>
       <c r="F49">
-        <v>3.7694383456897009</v>
+        <v>2.391536195142173</v>
       </c>
       <c r="G49">
-        <v>0.95269023867037916</v>
+        <v>-4.763630936946138E-2</v>
       </c>
       <c r="H49" s="4">
-        <v>18.239999999999998</v>
+        <v>20.58</v>
       </c>
       <c r="I49" s="4">
-        <v>59.54</v>
+        <v>121.61</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>44440</v>
+        <v>44927</v>
       </c>
       <c r="B50">
-        <v>22472.787669709629</v>
+        <v>1.8305070412674309</v>
       </c>
       <c r="C50">
-        <v>-18414.520007901381</v>
+        <v>-0.21995997051180979</v>
       </c>
       <c r="D50">
-        <v>-5.8085800000000001</v>
+        <v>-5.9903300000000002</v>
       </c>
       <c r="E50">
-        <v>-6.3580503080000002</v>
+        <v>-7.5267355140000003</v>
       </c>
       <c r="F50">
-        <v>2.8306182630685042</v>
+        <v>-2.56844528752185</v>
       </c>
       <c r="G50">
-        <v>1.07829177152692</v>
+        <v>0.85499441301325774</v>
       </c>
       <c r="H50" s="4">
-        <v>16.48</v>
+        <v>21.67</v>
       </c>
       <c r="I50" s="4">
-        <v>61.07</v>
+        <v>99.54</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>44470</v>
+        <v>44958</v>
       </c>
       <c r="B51">
-        <v>22678.822563455051</v>
+        <v>1.8688928607649939</v>
       </c>
       <c r="C51">
-        <v>-18763.800376986339</v>
+        <v>1.23939320634174E-3</v>
       </c>
       <c r="D51">
-        <v>-5.9617199999999997</v>
+        <v>-6.0438700000000001</v>
       </c>
       <c r="E51">
-        <v>-6.6725433499999998</v>
+        <v>-7.3785915209999997</v>
       </c>
       <c r="F51">
-        <v>2.9110190251035331</v>
+        <v>-1.324201733555884</v>
       </c>
       <c r="G51">
-        <v>0.66834971397419451</v>
+        <v>-0.19022659214379159</v>
       </c>
       <c r="H51" s="4">
-        <v>23.14</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="I51" s="4">
-        <v>75.45</v>
+        <v>123.6</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>44501</v>
+        <v>44986</v>
       </c>
       <c r="B52">
-        <v>22914.15857083728</v>
+        <v>2.039327933299961</v>
       </c>
       <c r="C52">
-        <v>-18737.91035776474</v>
+        <v>-7.1384775173453166E-3</v>
       </c>
       <c r="D52">
-        <v>-6.20878</v>
+        <v>-6.0491299999999999</v>
       </c>
       <c r="E52">
-        <v>-6.4740654419999997</v>
+        <v>-6.9887081789999996</v>
       </c>
       <c r="F52">
-        <v>3.558980588685682</v>
+        <v>-1.973019746313817</v>
       </c>
       <c r="G52">
-        <v>1.2344199148499679</v>
+        <v>2.6053187281477441E-2</v>
       </c>
       <c r="H52" s="4">
-        <v>16.260000000000002</v>
+        <v>20.7</v>
       </c>
       <c r="I52" s="4">
-        <v>84.04</v>
+        <v>135.93</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>44531</v>
+        <v>45017</v>
       </c>
       <c r="B53">
-        <v>23274.852756175522</v>
+        <v>1.9119779110572219</v>
       </c>
       <c r="C53">
-        <v>-18845.228915190401</v>
+        <v>8.2054982683036792E-2</v>
       </c>
       <c r="D53">
-        <v>-5.8412899999999999</v>
+        <v>-4.4436400000000003</v>
       </c>
       <c r="E53">
-        <v>-6.5245967690000004</v>
+        <v>-3.1169772409999998</v>
       </c>
       <c r="F53">
-        <v>3.61753520699824</v>
+        <v>0.33575704143317692</v>
       </c>
       <c r="G53">
-        <v>0.65541051549392781</v>
+        <v>-0.249444356787657</v>
       </c>
       <c r="H53" s="4">
-        <v>27.19</v>
+        <v>18.7</v>
       </c>
       <c r="I53" s="4">
-        <v>77.099999999999994</v>
+        <v>122.46</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>44562</v>
+        <v>45047</v>
       </c>
       <c r="B54">
-        <v>23252.81150330287</v>
+        <v>2.0774777511740372</v>
       </c>
       <c r="C54">
-        <v>-18790.334340234622</v>
+        <v>3.529468150046183E-3</v>
       </c>
       <c r="D54">
-        <v>-6.1100199999999996</v>
+        <v>-6.0621099999999997</v>
       </c>
       <c r="E54">
-        <v>-6.5969415529999997</v>
+        <v>-6.7996904520000001</v>
       </c>
       <c r="F54">
-        <v>3.311330397636628</v>
+        <v>-1.9296529789900869</v>
       </c>
       <c r="G54">
-        <v>0.93245549203178124</v>
+        <v>0.82676660973133809</v>
       </c>
       <c r="H54" s="4">
-        <v>17.22</v>
+        <v>15.78</v>
       </c>
       <c r="I54" s="4">
-        <v>85.14</v>
+        <v>136.02000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>44593</v>
+        <v>45078</v>
       </c>
       <c r="B55">
-        <v>23215.89147042382</v>
+        <v>2.0190350055030319</v>
       </c>
       <c r="C55">
-        <v>-18755.6641150137</v>
+        <v>0.15765313935188019</v>
       </c>
       <c r="D55">
-        <v>-5.7752600000000003</v>
+        <v>-5.8962700000000003</v>
       </c>
       <c r="E55">
-        <v>-6.7500800969999997</v>
+        <v>-6.4903772650000002</v>
       </c>
       <c r="F55">
-        <v>3.5409881209568121</v>
+        <v>-3.184271067827718</v>
       </c>
       <c r="G55">
-        <v>0.713903236891966</v>
+        <v>-0.29691264424167618</v>
       </c>
       <c r="H55" s="4">
-        <v>24.83</v>
+        <v>17.940000000000001</v>
       </c>
       <c r="I55" s="4">
-        <v>100.4</v>
+        <v>110.64</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>44621</v>
+        <v>45108</v>
       </c>
       <c r="B56">
-        <v>23495.214226148441</v>
+        <v>2.067351311166111</v>
       </c>
       <c r="C56">
-        <v>-18836.790281862352</v>
+        <v>0.39079833111458218</v>
       </c>
       <c r="D56">
-        <v>-5.8529999999999998</v>
+        <v>-6.3092100000000002</v>
       </c>
       <c r="E56">
-        <v>-7.2639453920000001</v>
+        <v>-6.5047037039999998</v>
       </c>
       <c r="F56">
-        <v>3.3208454148431379</v>
+        <v>-0.73774956701992978</v>
       </c>
       <c r="G56">
-        <v>0.57085530133413664</v>
+        <v>-0.1811343700416416</v>
       </c>
       <c r="H56" s="4">
-        <v>30.15</v>
+        <v>13.59</v>
       </c>
       <c r="I56" s="4">
-        <v>106.88</v>
+        <v>112.03</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>44652</v>
+        <v>45139</v>
       </c>
       <c r="B57">
-        <v>23587.533942972419</v>
+        <v>2.260633771943394</v>
       </c>
       <c r="C57">
-        <v>-18922.539102591571</v>
+        <v>0.58727499336049271</v>
       </c>
       <c r="D57">
-        <v>-5.7241400000000002</v>
+        <v>-5.9755500000000001</v>
       </c>
       <c r="E57">
-        <v>-7.1713131150000002</v>
+        <v>-7.2851271540000004</v>
       </c>
       <c r="F57">
-        <v>3.988092967954167</v>
+        <v>-1.340616833907843</v>
       </c>
       <c r="G57">
-        <v>0.78556320849638861</v>
+        <v>1.067785653975061</v>
       </c>
       <c r="H57" s="4">
-        <v>20.56</v>
+        <v>13.63</v>
       </c>
       <c r="I57" s="4">
-        <v>128.4</v>
+        <v>107.93</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>44682</v>
+        <v>45170</v>
       </c>
       <c r="B58">
-        <v>23268.548735730728</v>
+        <v>2.2720140171158878</v>
       </c>
       <c r="C58">
-        <v>-18954.993322130391</v>
+        <v>0.43393978537633532</v>
       </c>
       <c r="D58">
-        <v>-7.5625999999999998</v>
+        <v>-5.4041199999999998</v>
       </c>
       <c r="E58">
-        <v>-7.0931428910000003</v>
+        <v>-6.1346803940000001</v>
       </c>
       <c r="F58">
-        <v>3.618621632824834</v>
+        <v>-2.090321616640709</v>
       </c>
       <c r="G58">
-        <v>1.4149425217580329</v>
+        <v>0.31374980822604992</v>
       </c>
       <c r="H58" s="4">
-        <v>33.4</v>
+        <v>13.57</v>
       </c>
       <c r="I58" s="4">
-        <v>107.12</v>
+        <v>113.55</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>44713</v>
+        <v>45200</v>
       </c>
       <c r="B59">
-        <v>23251.705444071191</v>
+        <v>2.393652300393089</v>
       </c>
       <c r="C59">
-        <v>-18909.889934451239</v>
+        <v>0.32675347844824831</v>
       </c>
       <c r="D59">
-        <v>-5.4974999999999996</v>
+        <v>-6.4297300000000002</v>
       </c>
       <c r="E59">
-        <v>-5.0506437220000002</v>
+        <v>-6.8514166870000004</v>
       </c>
       <c r="F59">
-        <v>2.497122845790912</v>
+        <v>-5.3990443681271421</v>
       </c>
       <c r="G59">
-        <v>0.65336229777322175</v>
+        <v>-0.19249574950911549</v>
       </c>
       <c r="H59" s="4">
-        <v>26.19</v>
+        <v>17.52</v>
       </c>
       <c r="I59" s="4">
-        <v>135.5</v>
+        <v>126.86</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>44743</v>
+        <v>45231</v>
       </c>
       <c r="B60">
-        <v>23205.112166665709</v>
+        <v>2.4962968628252322</v>
       </c>
       <c r="C60">
-        <v>-18940.604261408898</v>
+        <v>0.36849117445658641</v>
       </c>
       <c r="D60">
-        <v>-5.8789499999999997</v>
+        <v>-6.6729200000000004</v>
       </c>
       <c r="E60">
-        <v>-6.7624564139999999</v>
+        <v>-6.7048719849999996</v>
       </c>
       <c r="F60">
-        <v>2.7456026166046388</v>
+        <v>-3.213052741997303</v>
       </c>
       <c r="G60">
-        <v>0.7134602763039799</v>
+        <v>0.32810614827742413</v>
       </c>
       <c r="H60" s="4">
-        <v>28.71</v>
+        <v>18.14</v>
       </c>
       <c r="I60" s="4">
-        <v>116.36</v>
+        <v>115.32</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>44774</v>
+        <v>45261</v>
       </c>
       <c r="B61">
-        <v>23153.90520596402</v>
+        <v>2.349758069415707</v>
       </c>
       <c r="C61">
-        <v>-19164.178065986689</v>
+        <v>0.279287940917061</v>
       </c>
       <c r="D61">
-        <v>-6.7389599999999996</v>
+        <v>-6.4381399999999998</v>
       </c>
       <c r="E61">
-        <v>-7.1084182900000004</v>
+        <v>-5.1701409060000003</v>
       </c>
       <c r="F61">
-        <v>3.6852333500854648</v>
+        <v>-1.7802887851208919</v>
       </c>
       <c r="G61">
-        <v>0.6072620725962512</v>
+        <v>0.48212320984721002</v>
       </c>
       <c r="H61" s="4">
-        <v>21.33</v>
+        <v>12.92</v>
       </c>
       <c r="I61" s="4">
-        <v>124.84</v>
+        <v>114.62</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>44805</v>
+        <v>45292</v>
       </c>
       <c r="B62">
-        <v>22997.12437621611</v>
+        <v>2.271393810607381</v>
       </c>
       <c r="C62">
-        <v>-19093.570794072701</v>
+        <v>0.54437104133016656</v>
       </c>
       <c r="D62">
-        <v>-7.3659499999999998</v>
+        <v>-6.1224299999999996</v>
       </c>
       <c r="E62">
-        <v>-7.6211800910000003</v>
+        <v>-6.193805062</v>
       </c>
       <c r="F62">
-        <v>3.8492010908886169</v>
+        <v>-1.539209852700457</v>
       </c>
       <c r="G62">
-        <v>1.0416240127568961</v>
+        <v>-2.7366961566512402E-2</v>
       </c>
       <c r="H62" s="4">
-        <v>25.87</v>
+        <v>12.45</v>
       </c>
       <c r="I62" s="4">
-        <v>141.88999999999999</v>
+        <v>107.28</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>44835</v>
+        <v>45323</v>
       </c>
       <c r="B63">
-        <v>22809.018293312249</v>
+        <v>2.407578076987924</v>
       </c>
       <c r="C63">
-        <v>-19200.21058065999</v>
+        <v>0.59295605870484791</v>
       </c>
       <c r="D63">
-        <v>-6.4380699999999997</v>
+        <v>-5.73109</v>
       </c>
       <c r="E63">
-        <v>-7.3534945699999996</v>
+        <v>-6.2989183750000004</v>
       </c>
       <c r="F63">
-        <v>3.7163125226284581</v>
+        <v>-0.87838255254584163</v>
       </c>
       <c r="G63">
-        <v>0.66671792401072949</v>
+        <v>-1.6198970356911851E-2</v>
       </c>
       <c r="H63" s="4">
-        <v>31.62</v>
+        <v>14.35</v>
       </c>
       <c r="I63" s="4">
-        <v>147.91999999999999</v>
+        <v>109.1</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>44866</v>
+        <v>45352</v>
       </c>
       <c r="B64">
-        <v>22694.034350486021</v>
+        <v>2.435629447265693</v>
       </c>
       <c r="C64">
-        <v>-19241.229641830429</v>
+        <v>0.75573212411608237</v>
       </c>
       <c r="D64">
-        <v>-6.6310700000000002</v>
+        <v>-6.0929500000000001</v>
       </c>
       <c r="E64">
-        <v>-7.6880338930000001</v>
+        <v>-6.1615481299999999</v>
       </c>
       <c r="F64">
-        <v>4.0744607899603071</v>
+        <v>-2.4392166273054561</v>
       </c>
       <c r="G64">
-        <v>1.992203679153091</v>
+        <v>0.54169343211444465</v>
       </c>
       <c r="H64" s="4">
-        <v>25.88</v>
+        <v>13.4</v>
       </c>
       <c r="I64" s="4">
-        <v>127.27</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>44896</v>
+        <v>45383</v>
       </c>
       <c r="B65">
-        <v>22623.206840527331</v>
+        <v>2.6319460694200698</v>
       </c>
       <c r="C65">
-        <v>-19259.844704048912</v>
+        <v>0.67863346131402869</v>
       </c>
       <c r="D65">
-        <v>-4.44252</v>
+        <v>-5.7249299999999996</v>
       </c>
       <c r="E65">
-        <v>-5.918832418</v>
+        <v>-5.8930653279999996</v>
       </c>
       <c r="F65">
-        <v>2.4884858438580268</v>
+        <v>1.2907707064682601</v>
       </c>
       <c r="G65">
-        <v>0.84549305695049026</v>
+        <v>0.57901726717247293</v>
       </c>
       <c r="H65" s="4">
-        <v>20.58</v>
+        <v>13.01</v>
       </c>
       <c r="I65" s="4">
-        <v>121.61</v>
+        <v>107.46</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>44927</v>
+        <v>45413</v>
       </c>
       <c r="B66">
-        <v>22353.582034069659</v>
+        <v>2.7699599672955251</v>
       </c>
       <c r="C66">
-        <v>-19421.547076127321</v>
+        <v>0.34428473090586997</v>
       </c>
       <c r="D66">
-        <v>-5.9903300000000002</v>
+        <v>-5.75082</v>
       </c>
       <c r="E66">
-        <v>-7.5267355140000003</v>
+        <v>-6.2629422029999997</v>
       </c>
       <c r="F66">
-        <v>4.5950814895077956</v>
+        <v>0.17397264833769371</v>
       </c>
       <c r="G66">
-        <v>1.497785720407887</v>
+        <v>0.19858170831275609</v>
       </c>
       <c r="H66" s="4">
-        <v>21.67</v>
+        <v>15.65</v>
       </c>
       <c r="I66" s="4">
-        <v>99.54</v>
+        <v>91.14</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>44958</v>
+        <v>45444</v>
       </c>
       <c r="B67">
-        <v>22051.479638933899</v>
+        <v>2.793027511955994</v>
       </c>
       <c r="C67">
-        <v>-19400.41351143294</v>
+        <v>0.3111107290855708</v>
       </c>
       <c r="D67">
-        <v>-6.0438700000000001</v>
+        <v>-5.8559299999999999</v>
       </c>
       <c r="E67">
-        <v>-7.3785915209999997</v>
+        <v>-5.9770202650000002</v>
       </c>
       <c r="F67">
-        <v>4.2724647206781876</v>
+        <v>-1.866605287017737</v>
       </c>
       <c r="G67">
-        <v>0.91379915087974717</v>
+        <v>0.32722210618367309</v>
       </c>
       <c r="H67" s="4">
-        <v>19.399999999999999</v>
+        <v>12.92</v>
       </c>
       <c r="I67" s="4">
-        <v>123.6</v>
+        <v>98.59</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>44986</v>
+        <v>45474</v>
       </c>
       <c r="B68">
-        <v>21852.78458165472</v>
+        <v>3.0770458743222942</v>
       </c>
       <c r="C68">
-        <v>-19524.486399690741</v>
+        <v>0.37009393426343329</v>
       </c>
       <c r="D68">
-        <v>-6.0491299999999999</v>
+        <v>-6.4197699999999998</v>
       </c>
       <c r="E68">
-        <v>-6.9887081789999996</v>
+        <v>-6.4603888889999999</v>
       </c>
       <c r="F68">
-        <v>4.5275626245576968</v>
+        <v>-3.3496041589538872</v>
       </c>
       <c r="G68">
-        <v>1.097500042427721</v>
+        <v>0.58387367875214125</v>
       </c>
       <c r="H68" s="4">
-        <v>20.7</v>
+        <v>12.44</v>
       </c>
       <c r="I68" s="4">
-        <v>135.93</v>
+        <v>99.41</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>45017</v>
+        <v>45505</v>
       </c>
       <c r="B69">
-        <v>21554.807850852481</v>
+        <v>3.0622622939068642</v>
       </c>
       <c r="C69">
-        <v>-19513.809233398079</v>
+        <v>0.40828523157290469</v>
       </c>
       <c r="D69">
-        <v>-4.4436400000000003</v>
+        <v>-5.3741099999999999</v>
       </c>
       <c r="E69">
-        <v>-3.1169772409999998</v>
+        <v>-6.3792095020000001</v>
       </c>
       <c r="F69">
-        <v>3.5068546191123038</v>
+        <v>-0.69597137448759472</v>
       </c>
       <c r="G69">
-        <v>0.68547598864630199</v>
+        <v>0.45181291230381371</v>
       </c>
       <c r="H69" s="4">
-        <v>18.7</v>
+        <v>16.36</v>
       </c>
       <c r="I69" s="4">
-        <v>122.46</v>
+        <v>107.77</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>45047</v>
+        <v>45536</v>
       </c>
       <c r="B70">
-        <v>21245.2192628177</v>
+        <v>2.989840087161558</v>
       </c>
       <c r="C70">
-        <v>-19661.60855040087</v>
+        <v>0.43221848475043823</v>
       </c>
       <c r="D70">
-        <v>-6.0621099999999997</v>
+        <v>-6.16594</v>
       </c>
       <c r="E70">
-        <v>-6.7996904520000001</v>
+        <v>-6.5320893</v>
       </c>
       <c r="F70">
-        <v>4.2873565925597266</v>
+        <v>0.15305262471356379</v>
       </c>
       <c r="G70">
-        <v>1.5035600105238831</v>
+        <v>-0.17117765628845569</v>
       </c>
       <c r="H70" s="4">
-        <v>15.78</v>
+        <v>15</v>
       </c>
       <c r="I70" s="4">
-        <v>136.02000000000001</v>
+        <v>94.61</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>45078</v>
+        <v>45566</v>
       </c>
       <c r="B71">
-        <v>21202.258947418381</v>
+        <v>2.9014491580200308</v>
       </c>
       <c r="C71">
-        <v>-19691.42941941338</v>
+        <v>0.17489069465812901</v>
       </c>
       <c r="D71">
-        <v>-5.8962700000000003</v>
+        <v>-6.1752700000000003</v>
       </c>
       <c r="E71">
-        <v>-6.4903772650000002</v>
+        <v>-6.757449136</v>
       </c>
       <c r="F71">
-        <v>5.165129218139394</v>
+        <v>-2.0161949725769839</v>
       </c>
       <c r="G71">
-        <v>0.90945122167107684</v>
+        <v>0.4117441334161368</v>
       </c>
       <c r="H71" s="4">
-        <v>17.940000000000001</v>
+        <v>16.73</v>
       </c>
       <c r="I71" s="4">
-        <v>110.64</v>
+        <v>135.18</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>45108</v>
+        <v>45597</v>
       </c>
       <c r="B72">
-        <v>21117.593365559111</v>
+        <v>2.8642780093524478</v>
       </c>
       <c r="C72">
-        <v>-19820.886902528899</v>
+        <v>0.1701364220111295</v>
       </c>
       <c r="D72">
-        <v>-6.3092100000000002</v>
+        <v>-5.8405699999999996</v>
       </c>
       <c r="E72">
-        <v>-6.5047037039999998</v>
+        <v>-6.1009236680000001</v>
       </c>
       <c r="F72">
-        <v>4.0285159539751669</v>
+        <v>-1.971058406828424</v>
       </c>
       <c r="G72">
-        <v>0.87878218176931155</v>
+        <v>0.59774471260147233</v>
       </c>
       <c r="H72" s="4">
-        <v>13.59</v>
+        <v>23.16</v>
       </c>
       <c r="I72" s="4">
-        <v>112.03</v>
+        <v>95.22</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>45139</v>
+        <v>45627</v>
       </c>
       <c r="B73">
-        <v>21018.99657699572</v>
+        <v>2.7794015169239068</v>
       </c>
       <c r="C73">
-        <v>-19953.050571865751</v>
+        <v>0.19478270844443421</v>
       </c>
       <c r="D73">
-        <v>-5.9755500000000001</v>
+        <v>-5.7669699999999997</v>
       </c>
       <c r="E73">
-        <v>-7.2851271540000004</v>
+        <v>-5.7002304800000001</v>
       </c>
       <c r="F73">
-        <v>3.958391901123298</v>
+        <v>1.9821175722177451</v>
       </c>
       <c r="G73">
-        <v>1.091249879391152</v>
+        <v>0.47595785680632918</v>
       </c>
       <c r="H73" s="4">
-        <v>13.63</v>
+        <v>13.51</v>
       </c>
       <c r="I73" s="4">
-        <v>107.93</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>45170</v>
+        <v>45658</v>
       </c>
       <c r="B74">
-        <v>20936.899600270201</v>
+        <v>3.3005131282781761</v>
       </c>
       <c r="C74">
-        <v>-19969.627273857652</v>
+        <v>0.16349021473677761</v>
       </c>
       <c r="D74">
-        <v>-5.4041199999999998</v>
+        <v>-6.1659600000000001</v>
       </c>
       <c r="E74">
-        <v>-6.1346803940000001</v>
+        <v>-6.1566741250000003</v>
       </c>
       <c r="F74">
-        <v>4.5034866174139996</v>
+        <v>0.56391490894368934</v>
       </c>
       <c r="G74">
-        <v>1.090301645252828</v>
+        <v>0.25966070597730861</v>
       </c>
       <c r="H74" s="4">
-        <v>13.57</v>
+        <v>17.350000000000001</v>
       </c>
       <c r="I74" s="4">
-        <v>113.55</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
-        <v>45200</v>
-      </c>
-      <c r="B75">
-        <v>20823.488663932789</v>
-      </c>
-      <c r="C75">
-        <v>-19972.62796504483</v>
-      </c>
-      <c r="D75">
-        <v>-6.4297300000000002</v>
-      </c>
-      <c r="E75">
-        <v>-6.8514166870000004</v>
-      </c>
-      <c r="F75">
-        <v>6.1755973379301361</v>
-      </c>
-      <c r="G75">
-        <v>0.9826132565782717</v>
-      </c>
-      <c r="H75" s="4">
-        <v>17.52</v>
-      </c>
-      <c r="I75" s="4">
-        <v>126.86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
-        <v>45231</v>
-      </c>
-      <c r="B76">
-        <v>20812.989407526329</v>
-      </c>
-      <c r="C76">
-        <v>-20096.660020525062</v>
-      </c>
-      <c r="D76">
-        <v>-6.6729200000000004</v>
-      </c>
-      <c r="E76">
-        <v>-6.7048719849999996</v>
-      </c>
-      <c r="F76">
-        <v>5.0033410676197114</v>
-      </c>
-      <c r="G76">
-        <v>1.253878361503048</v>
-      </c>
-      <c r="H76" s="4">
-        <v>18.14</v>
-      </c>
-      <c r="I76" s="4">
-        <v>115.32</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
-        <v>45261</v>
-      </c>
-      <c r="B77">
-        <v>20944.096402637198</v>
-      </c>
-      <c r="C77">
-        <v>-20289.683722559901</v>
-      </c>
-      <c r="D77">
-        <v>-6.4381399999999998</v>
-      </c>
-      <c r="E77">
-        <v>-5.1701409060000003</v>
-      </c>
-      <c r="F77">
-        <v>4.2993316701475646</v>
-      </c>
-      <c r="G77">
-        <v>1.2614540610906451</v>
-      </c>
-      <c r="H77" s="4">
-        <v>12.92</v>
-      </c>
-      <c r="I77" s="4">
-        <v>114.62</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
-        <v>45292</v>
-      </c>
-      <c r="B78">
-        <v>20837.2316150226</v>
-      </c>
-      <c r="C78">
-        <v>-20159.675408051069</v>
-      </c>
-      <c r="D78">
-        <v>-6.1224299999999996</v>
-      </c>
-      <c r="E78">
-        <v>-6.193805062</v>
-      </c>
-      <c r="F78">
-        <v>4.3443776862552959</v>
-      </c>
-      <c r="G78">
-        <v>1.0147271323864819</v>
-      </c>
-      <c r="H78" s="4">
-        <v>12.45</v>
-      </c>
-      <c r="I78" s="4">
-        <v>107.28</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
-        <v>45323</v>
-      </c>
-      <c r="B79">
-        <v>20755.723626830419</v>
-      </c>
-      <c r="C79">
-        <v>-20294.302953582312</v>
-      </c>
-      <c r="D79">
-        <v>-5.73109</v>
-      </c>
-      <c r="E79">
-        <v>-6.2989183750000004</v>
-      </c>
-      <c r="F79">
-        <v>4.0213433684774786</v>
-      </c>
-      <c r="G79">
-        <v>1.0196012324709911</v>
-      </c>
-      <c r="H79" s="4">
-        <v>14.35</v>
-      </c>
-      <c r="I79" s="4">
-        <v>109.1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
-        <v>45352</v>
-      </c>
-      <c r="B80">
-        <v>20931.017522296679</v>
-      </c>
-      <c r="C80">
-        <v>-20281.805526035201</v>
-      </c>
-      <c r="D80">
-        <v>-6.0929500000000001</v>
-      </c>
-      <c r="E80">
-        <v>-6.1615481299999999</v>
-      </c>
-      <c r="F80">
-        <v>4.5989061319682554</v>
-      </c>
-      <c r="G80">
-        <v>1.44738608879959</v>
-      </c>
-      <c r="H80" s="4">
-        <v>13.4</v>
-      </c>
-      <c r="I80" s="4">
-        <v>86.38</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
-        <v>45383</v>
-      </c>
-      <c r="B81">
-        <v>20974.84404596833</v>
-      </c>
-      <c r="C81">
-        <v>-20367.885670566051</v>
-      </c>
-      <c r="D81">
-        <v>-5.7249299999999996</v>
-      </c>
-      <c r="E81">
-        <v>-5.8930653279999996</v>
-      </c>
-      <c r="F81">
-        <v>2.861611830000363</v>
-      </c>
-      <c r="G81">
-        <v>1.233584490977234</v>
-      </c>
-      <c r="H81" s="4">
-        <v>13.01</v>
-      </c>
-      <c r="I81" s="4">
-        <v>107.46</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
-        <v>45413</v>
-      </c>
-      <c r="B82">
-        <v>20803.711308908569</v>
-      </c>
-      <c r="C82">
-        <v>-20466.89921579033</v>
-      </c>
-      <c r="D82">
-        <v>-5.75082</v>
-      </c>
-      <c r="E82">
-        <v>-6.2629422029999997</v>
-      </c>
-      <c r="F82">
-        <v>3.4784737906718028</v>
-      </c>
-      <c r="G82">
-        <v>1.0522160156146569</v>
-      </c>
-      <c r="H82" s="4">
-        <v>15.65</v>
-      </c>
-      <c r="I82" s="4">
-        <v>91.14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
-        <v>45444</v>
-      </c>
-      <c r="B83">
-        <v>20901.99045711683</v>
-      </c>
-      <c r="C83">
-        <v>-20463.846307238509</v>
-      </c>
-      <c r="D83">
-        <v>-5.8559299999999999</v>
-      </c>
-      <c r="E83">
-        <v>-5.9770202650000002</v>
-      </c>
-      <c r="F83">
-        <v>4.3642795322534864</v>
-      </c>
-      <c r="G83">
-        <v>1.408944616056562</v>
-      </c>
-      <c r="H83" s="4">
-        <v>12.92</v>
-      </c>
-      <c r="I83" s="4">
-        <v>98.59</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
-        <v>45474</v>
-      </c>
-      <c r="B84">
-        <v>20900.491149350539</v>
-      </c>
-      <c r="C84">
-        <v>-20645.350208865941</v>
-      </c>
-      <c r="D84">
-        <v>-6.4197699999999998</v>
-      </c>
-      <c r="E84">
-        <v>-6.4603888889999999</v>
-      </c>
-      <c r="F84">
-        <v>5.0177202492208064</v>
-      </c>
-      <c r="G84">
-        <v>1.4839509653945691</v>
-      </c>
-      <c r="H84" s="4">
-        <v>12.44</v>
-      </c>
-      <c r="I84" s="4">
-        <v>99.41</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
-        <v>45505</v>
-      </c>
-      <c r="B85">
-        <v>20967.850410626361</v>
-      </c>
-      <c r="C85">
-        <v>-20647.204181620611</v>
-      </c>
-      <c r="D85">
-        <v>-5.3741099999999999</v>
-      </c>
-      <c r="E85">
-        <v>-6.3792095020000001</v>
-      </c>
-      <c r="F85">
-        <v>3.812181224166054</v>
-      </c>
-      <c r="G85">
-        <v>1.134805133582302</v>
-      </c>
-      <c r="H85" s="4">
-        <v>16.36</v>
-      </c>
-      <c r="I85" s="4">
-        <v>107.77</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
-        <v>45536</v>
-      </c>
-      <c r="B86">
-        <v>21033.703775814949</v>
-      </c>
-      <c r="C86">
-        <v>-20619.577516078651</v>
-      </c>
-      <c r="D86">
-        <v>-6.16594</v>
-      </c>
-      <c r="E86">
-        <v>-6.5320893</v>
-      </c>
-      <c r="F86">
-        <v>3.5586088368397051</v>
-      </c>
-      <c r="G86">
-        <v>0.8428892082532472</v>
-      </c>
-      <c r="H86" s="4">
-        <v>15</v>
-      </c>
-      <c r="I86" s="4">
-        <v>94.61</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="2">
-        <v>45566</v>
-      </c>
-      <c r="B87">
-        <v>21084.004026736591</v>
-      </c>
-      <c r="C87">
-        <v>-20727.368974149729</v>
-      </c>
-      <c r="D87">
-        <v>-6.1752700000000003</v>
-      </c>
-      <c r="E87">
-        <v>-6.757449136</v>
-      </c>
-      <c r="F87">
-        <v>4.4284741133921539</v>
-      </c>
-      <c r="G87">
-        <v>1.2987488945430219</v>
-      </c>
-      <c r="H87" s="4">
-        <v>16.73</v>
-      </c>
-      <c r="I87" s="4">
-        <v>135.18</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
-        <v>45597</v>
-      </c>
-      <c r="B88">
-        <v>21263.883916715102</v>
-      </c>
-      <c r="C88">
-        <v>-20757.29425793824</v>
-      </c>
-      <c r="D88">
-        <v>-5.8405699999999996</v>
-      </c>
-      <c r="E88">
-        <v>-6.1009236680000001</v>
-      </c>
-      <c r="F88">
-        <v>4.3588683597750153</v>
-      </c>
-      <c r="G88">
-        <v>1.41556995626024</v>
-      </c>
-      <c r="H88" s="4">
-        <v>23.16</v>
-      </c>
-      <c r="I88" s="4">
-        <v>95.22</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
-        <v>45627</v>
-      </c>
-      <c r="B89">
-        <v>21428.817933311209</v>
-      </c>
-      <c r="C89">
-        <v>-20670.448684940689</v>
-      </c>
-      <c r="D89">
-        <v>-5.7669699999999997</v>
-      </c>
-      <c r="E89">
-        <v>-5.7002304800000001</v>
-      </c>
-      <c r="F89">
-        <v>2.5664146248669288</v>
-      </c>
-      <c r="G89">
-        <v>0.9830613143721445</v>
-      </c>
-      <c r="H89" s="4">
-        <v>13.51</v>
-      </c>
-      <c r="I89" s="4">
-        <v>98.8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
-        <v>45658</v>
-      </c>
-      <c r="B90">
-        <v>21426.33148968609</v>
-      </c>
-      <c r="C90">
-        <v>-20867.082618338129</v>
-      </c>
-      <c r="D90">
-        <v>-6.1659600000000001</v>
-      </c>
-      <c r="E90">
-        <v>-6.1566741250000003</v>
-      </c>
-      <c r="F90">
-        <v>3.290558202446983</v>
-      </c>
-      <c r="G90">
-        <v>0.87296742189159271</v>
-      </c>
-      <c r="H90" s="4">
-        <v>17.350000000000001</v>
-      </c>
-      <c r="I90" s="4">
         <v>91.76</v>
       </c>
     </row>
